--- a/questionnaires/RBDstandardized_questionnaireLHCSI_ENA.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCSI_ENA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.olander\OneDrive - World Food Programme\Desktop\standardization_hhquestionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E6DBE6-FDC9-4081-A690-EBF4227FAA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B377F3B-54D2-4336-8897-92CEDF3D61B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$H$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$H$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>type</t>
   </si>
@@ -96,9 +96,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>select_one Yesno</t>
-  </si>
-  <si>
     <t>constraint_message::English</t>
   </si>
   <si>
@@ -123,18 +120,12 @@
     <t>form_title</t>
   </si>
   <si>
-    <t>During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> note</t>
   </si>
   <si>
     <t>Not applicable</t>
   </si>
   <si>
-    <t>note1</t>
-  </si>
-  <si>
     <t>Non, parce que j’ai déjà vendu ces actifs ou mené cette activité au cours des 12 derniers mois et je ne peux pas continuer à le faire</t>
   </si>
   <si>
@@ -147,36 +138,15 @@
     <t>English</t>
   </si>
   <si>
-    <t>noteLhCSI</t>
-  </si>
-  <si>
     <t>No, because it wasn’t necessary</t>
   </si>
   <si>
-    <t xml:space="preserve">If ‘No’, please clarify:  </t>
-  </si>
-  <si>
-    <t>Livelihood Copings Strategies Standard Module (pg. 45, https://documents.wfp.org/stellent/groups/public/documents/manual_guide_proced/wfp271449.pdf)</t>
-  </si>
-  <si>
-    <t>Livelihood Copings Strategies Light Module (pg. 46, https://documents.wfp.org/stellent/groups/public/documents/manual_guide_proced/wfp271449.pdf)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t>noteLhCSIlt</t>
-  </si>
-  <si>
-    <t>note2</t>
-  </si>
-  <si>
     <t>noteLhCSena</t>
   </si>
   <si>
-    <t>Livelihood Copings Strategies for Essential Needs Module (pg. 56 - 57, https://docs.wfp.org/api/documents/WFP-0000074197/download/?_ga=2.68640081.1716832850.1603811924-2059660384.1570005371)</t>
-  </si>
-  <si>
     <t>note3</t>
   </si>
   <si>
@@ -192,12 +162,6 @@
     <t>lhcsno</t>
   </si>
   <si>
-    <t>select_one lhcsno</t>
-  </si>
-  <si>
-    <t>lhcslt</t>
-  </si>
-  <si>
     <t>select_one lhcslt</t>
   </si>
   <si>
@@ -207,569 +171,7 @@
     <t>No; because I already sold those assets or did this activity in the last 12 months and cannot continue to do it</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sell household assets/goods (radio, furniture, refrigerator, television, jewelry etc..) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Reduce non-food expenses on health (including drugs) and education 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sell productive assets or means of transport (sewing machine, wheelbarrow, bicycle, car, etc..) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">spend savings </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Borrow money / food  from a formal lender / bank </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sell house or land </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> During the past 30 days, did anyone in your household have to:  
-w</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ithdraw children from school
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sell last female animals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">beg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">During the past 30 days, did anyone in your household have to: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sell more animals (non-productive) than usual</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- due to a lack of food or a lack of money to buy food?</t>
-    </r>
-  </si>
-  <si>
     <t>Non, car cela n’était pas nécessaire</t>
-  </si>
-  <si>
-    <t>Si ‘Non’, merci de clarifier:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vendre des actifs/biens non productifs du ménage (radio, meuble, réfrigérateur, télévision, bijoux etc.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vendre plus d’animaux (non-productifs) que d’habitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dépenser l’épargne </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Emprunter de l’argent / nourriture auprès d’un prêteur formel /banque
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Réduire les dépenses non alimentaires essentielles telles que l’éducation, la santé (dont de médicaments)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vendre des biens productifs ou des moyens de transport (machine à coudre, brouette, vélo, car, etc.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Retirer les enfants de l’école</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vendre la maison ou du terrain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Vendre les derniers animaux femelles
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mendier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-    </r>
   </si>
   <si>
     <t>No, because I did not face a
@@ -824,66 +226,11 @@
 due to a lack of food or a lack of money to buy food?</t>
   </si>
   <si>
-    <r>
-      <t>Note to enumerator:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>do not list the below as options to the respondent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Instead, mark all those that apply based on the answer provided.</t>
-    </r>
-  </si>
-  <si>
-    <t>LhCSIEnAccess</t>
-  </si>
-  <si>
-    <t>select_multiple LhCSIEnAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EnAccessRsn</t>
-  </si>
-  <si>
     <t>During the past 30 days, did anyone in your household have to:  
 Borrow money 
 because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
   </si>
   <si>
-    <t xml:space="preserve">Other specify </t>
-  </si>
-  <si>
     <t xml:space="preserve">To access food </t>
   </si>
   <si>
@@ -908,158 +255,116 @@
     <t>To buy and repair cloths or shoes</t>
   </si>
   <si>
-    <t>LhCSICrisis1_YN</t>
-  </si>
-  <si>
-    <t>LhCSICrisis1_N</t>
-  </si>
-  <si>
-    <t>LhCSICrisis2_YN</t>
-  </si>
-  <si>
-    <t>LhCSICrisis2_N</t>
-  </si>
-  <si>
-    <t>LhCSICrisis3_YN</t>
-  </si>
-  <si>
-    <t>LhCSICrisis3_N</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency1_YN</t>
-  </si>
-  <si>
-    <t>LhCSIStress1_YN</t>
-  </si>
-  <si>
-    <t>LhCSIStress1_N</t>
-  </si>
-  <si>
-    <t>LhCSIStress2_YN</t>
-  </si>
-  <si>
-    <t>LhCSIStress2_N</t>
-  </si>
-  <si>
-    <t>LhCSIStress3_YN</t>
-  </si>
-  <si>
-    <t>LhCSIStress3_N</t>
-  </si>
-  <si>
-    <t>LhCSIStress4_YN</t>
-  </si>
-  <si>
-    <t>LhCSIStress4_N</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency1_N</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency2_N</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency2_YN</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency3_YN</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency3_N</t>
-  </si>
-  <si>
-    <t>${lLhCSIStress1_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSIStress2_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSIStress3_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSIStress4_YN = 2</t>
-  </si>
-  <si>
-    <t>${LhCSICrisis1_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSICrisis2_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSICrisis3_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSIEmergency1_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSIEmergency2_YN} = 2</t>
-  </si>
-  <si>
-    <t>${LhCSIEmergency3_YN} = 2</t>
-  </si>
-  <si>
-    <t>LhCSIDomAsset_EN</t>
-  </si>
-  <si>
-    <t>LhCSICrdt_EN</t>
-  </si>
-  <si>
-    <t>LhCSISaving_EN</t>
-  </si>
-  <si>
-    <t>LhCSIBorrowCash_EN</t>
-  </si>
-  <si>
-    <t>LhCSIProdAsset_EN</t>
-  </si>
-  <si>
-    <t>LhCSIOutSchool_EN</t>
-  </si>
-  <si>
-    <t>LhCSIResAsset_EN</t>
-  </si>
-  <si>
-    <t>LhCSIBegged_EN</t>
-  </si>
-  <si>
-    <t>LhCSIFemAnimal_EN</t>
-  </si>
-  <si>
-    <t>LhCSICrisis1_lt</t>
-  </si>
-  <si>
-    <t>LhCSICrisis2_lt</t>
-  </si>
-  <si>
-    <t>LhCSICrisis3_lt</t>
-  </si>
-  <si>
-    <t>LhCSIStress1_lt</t>
-  </si>
-  <si>
-    <t>LhCSIStress2_lt</t>
-  </si>
-  <si>
-    <t>LhCSIStress3_lt</t>
-  </si>
-  <si>
-    <t>LhCSIStress4_lt</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency1_lt</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency2_lt</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency3_lt</t>
+    <t>LhCSIStress1_EN</t>
+  </si>
+  <si>
+    <t>LhCSIStress2_EN</t>
+  </si>
+  <si>
+    <t>LhCSIStress3_EN</t>
+  </si>
+  <si>
+    <t>LhCSIStress4_EN</t>
+  </si>
+  <si>
+    <t>LhCSICrisis1_EN</t>
+  </si>
+  <si>
+    <t>LhCSICrisis2_EN</t>
+  </si>
+  <si>
+    <t>LhCSICrisis3_EN</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency1_EN</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency2_EN</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency3_EN</t>
+  </si>
+  <si>
+    <t>lhcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other  </t>
+  </si>
+  <si>
+    <t>EnAccessRsn</t>
+  </si>
+  <si>
+    <t>select_one EnAccessRsn</t>
+  </si>
+  <si>
+    <t>LhCSIStress1_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSIStress2_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSIStress3_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSIStress4_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSICrisis1_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSICrisis2_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSICrisis3_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency1_EN_why</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency2_EN_why</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the MAIN REASON you or other members in your household adopted these coping strategies to access essential needs? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livelihood Copings Strategies for Essential Needs Module </t>
+  </si>
+  <si>
+    <t>${LhCSIStress1_EN} = 2 or ${LhCSIStress1_EN} = 3</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency3_EN_why</t>
+  </si>
+  <si>
+    <t>${LhCSIStress2_EN} = 2 or ${LhCSIStress2_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSIStress3_EN} = 2 or ${LhCSIStress3_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSICrisis1_EN} = 2 or ${LhCSICrisis1_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSICrisis2_EN} = 2 or ${LhCSICrisis2_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSICrisis3_EN} = 2 or ${LhCSICrisis3_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSIEmergency1_EN} = 2 or ${LhCSIEmergency1_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSIEmergency2_EN} = 2 or ${LhCSIEmergency2_EN} = 3</t>
+  </si>
+  <si>
+    <t>${LhCSIEmergency3_EN} = 2 or ${LhCSIEmergency3_EN} = 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,32 +564,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1427,7 +710,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1597,9 +880,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1620,68 +900,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1690,13 +915,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2098,20 +1319,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="111.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
     <col min="7" max="9" width="3.85546875" style="1" customWidth="1"/>
@@ -2134,19 +1355,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>5</v>
@@ -2174,1089 +1395,721 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>67</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="72"/>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>50</v>
+      <c r="A5" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="M5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="72"/>
+    </row>
+    <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="M7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>69</v>
-      </c>
+      <c r="C8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="72"/>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>50</v>
+      <c r="A9" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="72"/>
       <c r="M9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="72"/>
     </row>
     <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>50</v>
+      <c r="A11" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="72"/>
       <c r="M11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>71</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="72"/>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="M13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>73</v>
-      </c>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>66</v>
-      </c>
+      <c r="A17" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="68"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>74</v>
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>14</v>
+      <c r="A19" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>87</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="93" t="s">
-        <v>75</v>
-      </c>
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="68"/>
       <c r="J20" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="68"/>
       <c r="M21" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>76</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="37"/>
       <c r="J22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A23" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="68"/>
       <c r="M23" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-    </row>
-    <row r="25" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="40"/>
+      <c r="E26" s="50"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="38"/>
+      <c r="E27" s="50"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="32"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="E28" s="50"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="40"/>
+      <c r="E29" s="50"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="83" t="s">
-        <v>68</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="40"/>
+      <c r="E30" s="50"/>
+      <c r="M30" s="50"/>
     </row>
     <row r="31" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="40"/>
+      <c r="E31" s="50"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="40"/>
+      <c r="E32" s="50"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A33"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="E33" s="50"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>72</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" s="40"/>
+      <c r="E34" s="50"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A35" s="10"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="40"/>
+      <c r="E35" s="50"/>
+      <c r="M35" s="56"/>
     </row>
     <row r="36" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="93" t="s">
-        <v>74</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="40"/>
+      <c r="E36" s="50"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="94" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37" s="40"/>
+      <c r="E37" s="50"/>
+      <c r="M37" s="56"/>
     </row>
     <row r="38" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="93" t="s">
-        <v>76</v>
-      </c>
+      <c r="A38" s="10"/>
+      <c r="B38"/>
+      <c r="C38" s="40"/>
+      <c r="E38" s="50"/>
+      <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J39" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A39"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="40"/>
+      <c r="E39" s="50"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="37"/>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40" s="40"/>
+      <c r="E40" s="50"/>
+      <c r="M40" s="56"/>
     </row>
     <row r="41" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="37"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="40"/>
+      <c r="E41" s="50"/>
+      <c r="M41" s="56"/>
     </row>
     <row r="42" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="73"/>
-      <c r="J42" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="E42" s="50"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="73"/>
+      <c r="A43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="42"/>
+      <c r="E43" s="50"/>
+      <c r="M43" s="57"/>
     </row>
     <row r="44" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="73"/>
-      <c r="J44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A44" s="10"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="44"/>
+      <c r="E44" s="43"/>
+      <c r="M44" s="57"/>
     </row>
     <row r="45" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="73"/>
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45" s="44"/>
+      <c r="E45" s="43"/>
+      <c r="M45"/>
     </row>
     <row r="46" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="73"/>
-      <c r="J46" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46" s="44"/>
+      <c r="E46" s="43"/>
+      <c r="M46"/>
     </row>
     <row r="47" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="45"/>
+      <c r="E47" s="50"/>
+      <c r="M47" s="32"/>
     </row>
     <row r="48" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="69"/>
-      <c r="J48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="66"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="45"/>
+      <c r="E48" s="50"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A49"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="45"/>
+      <c r="E49" s="50"/>
+      <c r="M49" s="43"/>
     </row>
     <row r="50" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="69"/>
-      <c r="J50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="69"/>
+      <c r="A50"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="45"/>
+      <c r="E50" s="50"/>
+      <c r="M50" s="43"/>
     </row>
     <row r="51" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="J51" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A51" s="10"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="45"/>
+      <c r="E51" s="50"/>
+      <c r="M51" s="43"/>
     </row>
     <row r="52" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="102" t="s">
-        <v>88</v>
-      </c>
+      <c r="A52"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="45"/>
+      <c r="E52" s="50"/>
+      <c r="M52" s="43"/>
+    </row>
+    <row r="53" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="E53" s="50"/>
+      <c r="M53" s="43"/>
+    </row>
+    <row r="54" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="E54" s="50"/>
+      <c r="M54" s="43"/>
+    </row>
+    <row r="55" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="M55" s="32"/>
     </row>
     <row r="56" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
-      <c r="C56" s="40"/>
+      <c r="C56" s="49"/>
       <c r="E56" s="50"/>
-      <c r="M56" s="50"/>
+      <c r="M56" s="46"/>
     </row>
     <row r="57" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="38"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="49"/>
       <c r="E57" s="50"/>
-      <c r="M57" s="50"/>
+      <c r="M57" s="46"/>
     </row>
     <row r="58" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
+      <c r="A58"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="49"/>
       <c r="E58" s="50"/>
-      <c r="M58" s="33"/>
+      <c r="M58" s="58"/>
     </row>
     <row r="59" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="40"/>
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59" s="49"/>
       <c r="E59" s="50"/>
-      <c r="M59" s="50"/>
+      <c r="M59" s="58"/>
     </row>
     <row r="60" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="40"/>
+      <c r="B60"/>
+      <c r="C60" s="49"/>
       <c r="E60" s="50"/>
-      <c r="M60" s="50"/>
+      <c r="M60" s="58"/>
     </row>
     <row r="61" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="33"/>
-      <c r="C61" s="40"/>
+      <c r="C61" s="50"/>
       <c r="E61" s="50"/>
-      <c r="M61" s="33"/>
+      <c r="M61" s="32"/>
     </row>
     <row r="62" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="40"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="50"/>
       <c r="E62" s="50"/>
-      <c r="M62" s="50"/>
+      <c r="M62" s="46"/>
     </row>
     <row r="63" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="50"/>
       <c r="E63" s="50"/>
-      <c r="M63" s="55"/>
+      <c r="M63" s="46"/>
     </row>
     <row r="64" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64" s="40"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="50"/>
       <c r="E64" s="50"/>
-      <c r="M64" s="56"/>
+      <c r="M64" s="46"/>
     </row>
     <row r="65" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="40"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="50"/>
       <c r="E65" s="50"/>
-      <c r="M65" s="56"/>
+      <c r="M65" s="46"/>
     </row>
     <row r="66" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="40"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="50"/>
       <c r="E66" s="50"/>
-      <c r="M66" s="55"/>
+      <c r="M66" s="46"/>
     </row>
     <row r="67" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67" s="40"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="50"/>
       <c r="E67" s="50"/>
-      <c r="M67" s="56"/>
+      <c r="M67" s="46"/>
     </row>
     <row r="68" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68"/>
-      <c r="C68" s="40"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="50"/>
       <c r="E68" s="50"/>
-      <c r="M68" s="56"/>
+      <c r="M68" s="46"/>
     </row>
     <row r="69" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="40"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="50"/>
       <c r="E69" s="50"/>
-      <c r="M69" s="55"/>
+      <c r="M69" s="46"/>
     </row>
     <row r="70" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70" s="40"/>
-      <c r="E70" s="50"/>
-      <c r="M70" s="56"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="50"/>
+      <c r="E70" s="54"/>
     </row>
     <row r="71" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="40"/>
-      <c r="E71" s="50"/>
-      <c r="M71" s="56"/>
+      <c r="C71" s="68"/>
     </row>
     <row r="72" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="E72" s="50"/>
-      <c r="M72" s="55"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="42"/>
-      <c r="E73" s="50"/>
-      <c r="M73" s="57"/>
+      <c r="M73" s="46"/>
     </row>
     <row r="74" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="44"/>
-      <c r="E74" s="43"/>
-      <c r="M74" s="57"/>
-    </row>
-    <row r="75" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75" s="44"/>
-      <c r="E75" s="43"/>
-      <c r="M75"/>
-    </row>
-    <row r="76" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76" s="44"/>
-      <c r="E76" s="43"/>
-      <c r="M76"/>
-    </row>
-    <row r="77" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="45"/>
-      <c r="E77" s="50"/>
-      <c r="M77" s="32"/>
-    </row>
-    <row r="78" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="45"/>
-      <c r="E78" s="50"/>
-      <c r="M78" s="47"/>
-    </row>
-    <row r="79" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="45"/>
-      <c r="E79" s="50"/>
-      <c r="M79" s="43"/>
-    </row>
-    <row r="80" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="45"/>
-      <c r="E80" s="50"/>
-      <c r="M80" s="43"/>
-    </row>
-    <row r="81" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="45"/>
-      <c r="E81" s="50"/>
-      <c r="M81" s="43"/>
-    </row>
-    <row r="82" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="45"/>
-      <c r="E82" s="50"/>
-      <c r="M82" s="43"/>
-    </row>
-    <row r="83" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="E83" s="50"/>
-      <c r="M83" s="43"/>
-    </row>
-    <row r="84" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="E84" s="50"/>
-      <c r="M84" s="43"/>
-    </row>
-    <row r="85" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="49"/>
-      <c r="E85" s="50"/>
-      <c r="M85" s="32"/>
-    </row>
-    <row r="86" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="49"/>
-      <c r="E86" s="50"/>
-      <c r="M86" s="46"/>
-    </row>
-    <row r="87" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="49"/>
-      <c r="E87" s="50"/>
-      <c r="M87" s="46"/>
-    </row>
-    <row r="88" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="49"/>
-      <c r="E88" s="50"/>
-      <c r="M88" s="58"/>
-    </row>
-    <row r="89" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89" s="49"/>
-      <c r="E89" s="50"/>
-      <c r="M89" s="58"/>
+      <c r="M74" s="46"/>
+    </row>
+    <row r="78" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="60"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+      <c r="M79" s="61"/>
+    </row>
+    <row r="80" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="M80" s="61"/>
+    </row>
+    <row r="81" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="62"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+      <c r="M85" s="63"/>
+    </row>
+    <row r="86" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+      <c r="M86" s="63"/>
+    </row>
+    <row r="87" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90"/>
-      <c r="C90" s="49"/>
-      <c r="E90" s="50"/>
-      <c r="M90" s="58"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="M91" s="32"/>
+      <c r="M91" s="46"/>
     </row>
     <row r="92" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="50"/>
-      <c r="E92" s="50"/>
       <c r="M92" s="46"/>
     </row>
-    <row r="93" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="M93" s="46"/>
-    </row>
-    <row r="94" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="M94" s="46"/>
-    </row>
-    <row r="95" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="M95" s="46"/>
-    </row>
-    <row r="96" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="M96" s="46"/>
-    </row>
-    <row r="97" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="M97" s="46"/>
-    </row>
-    <row r="98" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="M98" s="46"/>
-    </row>
-    <row r="99" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="M99" s="46"/>
-    </row>
-    <row r="100" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="50"/>
-      <c r="E100" s="54"/>
-    </row>
-    <row r="101" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="69"/>
+    <row r="96" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="62"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="M97" s="63"/>
+    </row>
+    <row r="98" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="M98" s="63"/>
+    </row>
+    <row r="99" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
@@ -3267,316 +2120,232 @@
     <row r="104" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M104" s="46"/>
     </row>
-    <row r="108" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="60"/>
+    <row r="108" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="62"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J109" s="1"/>
-      <c r="M109" s="61"/>
-    </row>
-    <row r="110" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="63"/>
+    </row>
+    <row r="110" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J110" s="1"/>
-      <c r="M110" s="61"/>
-    </row>
-    <row r="111" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="63"/>
+    </row>
+    <row r="111" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="62"/>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J115" s="1"/>
-      <c r="M115" s="63"/>
-    </row>
-    <row r="116" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J116" s="1"/>
-      <c r="M116" s="63"/>
-    </row>
-    <row r="117" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M121" s="46"/>
-    </row>
-    <row r="122" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M122" s="46"/>
-    </row>
-    <row r="126" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="62"/>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J127" s="1"/>
-      <c r="M127" s="63"/>
-    </row>
-    <row r="128" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J128" s="1"/>
-      <c r="M128" s="63"/>
-    </row>
-    <row r="129" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="46"/>
+    </row>
+    <row r="116" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="46"/>
+    </row>
+    <row r="120" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="62"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J121" s="1"/>
+      <c r="M121" s="63"/>
+    </row>
+    <row r="122" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+      <c r="M122" s="63"/>
+    </row>
+    <row r="123" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="20"/>
+    </row>
+    <row r="127" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="20"/>
+      <c r="M127" s="46"/>
+    </row>
+    <row r="128" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="20"/>
+      <c r="M128" s="46"/>
+    </row>
+    <row r="129" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="20"/>
+    </row>
+    <row r="130" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="20"/>
+    </row>
+    <row r="131" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="20"/>
+    </row>
+    <row r="132" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M133" s="46"/>
-    </row>
-    <row r="134" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M134" s="46"/>
-    </row>
-    <row r="138" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="62"/>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J139" s="1"/>
-      <c r="M139" s="63"/>
-    </row>
-    <row r="140" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J140" s="1"/>
-      <c r="M140" s="63"/>
-    </row>
-    <row r="141" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="64"/>
+    </row>
+    <row r="135" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="64"/>
+    </row>
+    <row r="136" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="65"/>
+    </row>
+    <row r="141" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="21"/>
+    </row>
+    <row r="144" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M145" s="46"/>
-    </row>
-    <row r="146" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M146" s="46"/>
-    </row>
-    <row r="150" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="62"/>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J151" s="1"/>
-      <c r="M151" s="63"/>
-    </row>
-    <row r="152" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J152" s="1"/>
-      <c r="M152" s="63"/>
-    </row>
-    <row r="153" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J154" s="1"/>
-      <c r="M154" s="1"/>
-    </row>
-    <row r="155" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="M155" s="1"/>
-    </row>
-    <row r="156" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="21"/>
+    </row>
+    <row r="147" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="21"/>
+    </row>
+    <row r="148" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+      <c r="C152" s="20"/>
+    </row>
+    <row r="153" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="3"/>
+      <c r="C153" s="20"/>
+    </row>
+    <row r="154" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="21"/>
+      <c r="C154" s="20"/>
+    </row>
+    <row r="155" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
+      <c r="C155" s="20"/>
+    </row>
+    <row r="156" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="20"/>
     </row>
-    <row r="157" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="3"/>
       <c r="C157" s="20"/>
-      <c r="M157" s="46"/>
-    </row>
-    <row r="158" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="3"/>
       <c r="C158" s="20"/>
-      <c r="M158" s="46"/>
-    </row>
-    <row r="159" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="3"/>
       <c r="C159" s="20"/>
     </row>
-    <row r="160" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="3"/>
       <c r="C160" s="20"/>
     </row>
-    <row r="161" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="3"/>
       <c r="C161" s="20"/>
     </row>
-    <row r="162" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="64"/>
-    </row>
-    <row r="165" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="64"/>
-    </row>
-    <row r="166" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="65"/>
-    </row>
-    <row r="171" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="21"/>
-    </row>
-    <row r="174" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="21"/>
-    </row>
-    <row r="177" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="21"/>
-    </row>
-    <row r="178" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="3"/>
-    </row>
-    <row r="180" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-    </row>
-    <row r="181" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="3"/>
-      <c r="C182" s="20"/>
-    </row>
-    <row r="183" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-      <c r="C183" s="20"/>
-    </row>
-    <row r="184" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="21"/>
-      <c r="C184" s="20"/>
-    </row>
-    <row r="185" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="3"/>
-      <c r="C185" s="20"/>
-    </row>
-    <row r="186" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-      <c r="C186" s="20"/>
-    </row>
-    <row r="187" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="3"/>
-      <c r="C187" s="20"/>
-    </row>
-    <row r="188" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
-      <c r="C188" s="20"/>
-    </row>
-    <row r="189" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
-      <c r="C189" s="20"/>
-    </row>
-    <row r="190" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="3"/>
-      <c r="C190" s="20"/>
-    </row>
-    <row r="191" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="3"/>
-      <c r="C191" s="20"/>
-    </row>
-    <row r="192" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="21"/>
-      <c r="C192" s="20"/>
-    </row>
-    <row r="193" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="20"/>
-    </row>
-    <row r="195" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="70"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="71"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="71"/>
-      <c r="G195" s="72"/>
-      <c r="H195" s="56"/>
-      <c r="I195" s="56"/>
-      <c r="K195" s="72"/>
-    </row>
-    <row r="196" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="32"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34"/>
-    </row>
-    <row r="197" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="32"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
-    </row>
-    <row r="198" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="32"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
-    </row>
-    <row r="199" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="32"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
-    </row>
-    <row r="200" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="32"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-    </row>
-    <row r="201" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="32"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
+    <row r="162" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="21"/>
+      <c r="C162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="20"/>
+    </row>
+    <row r="165" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="69"/>
+      <c r="C165" s="70"/>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="71"/>
+      <c r="H165" s="56"/>
+      <c r="I165" s="56"/>
+      <c r="K165" s="71"/>
+    </row>
+    <row r="166" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="32"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+    </row>
+    <row r="167" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="32"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+    </row>
+    <row r="168" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="32"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+    </row>
+    <row r="169" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="32"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+    </row>
+    <row r="170" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="32"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+    </row>
+    <row r="171" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="32"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{7628E898-5CA1-4554-AD54-5C79B5B36A2A}"/>
@@ -3588,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2142"/>
+  <dimension ref="A1:H2120"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,13 +2387,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>16</v>
@@ -3638,227 +2407,211 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="10">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="C9" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="C10" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="C11" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>91</v>
+      <c r="A13" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
-        <v>91</v>
+      <c r="A14" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
-        <v>91</v>
+      <c r="A15" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B15" s="10">
-        <v>3</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>62</v>
       </c>
       <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>91</v>
+      <c r="A16" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B16" s="10">
-        <v>4</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>101</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="37"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>91</v>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B17" s="10">
-        <v>5</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>99</v>
+        <v>999</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="10">
-        <v>6</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="37"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="10">
-        <v>7</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="37"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="10">
-        <v>8</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="37"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="10">
-        <v>999</v>
-      </c>
-      <c r="C21" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="37"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -3899,19 +2652,19 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
+      <c r="C28"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="C29"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="C30"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,25 +2674,25 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3951,457 +2704,457 @@
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
+      <c r="A37"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
+      <c r="A38"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
+      <c r="A39"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
+      <c r="A40"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
+      <c r="A41"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
+      <c r="A42"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
+      <c r="A43"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
+      <c r="A44"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
+      <c r="A45"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
+      <c r="A46"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
+      <c r="A47"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
+      <c r="A48"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="11"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="11"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="11"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="11"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="11"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="11"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="11"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="8"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="8"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="8"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="13"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="13"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="13"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="13"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="13"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="13"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="13"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="13"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="13"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="13"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -5175,301 +3928,301 @@
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="13"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="13"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="13"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="13"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="13"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="13"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="13"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="13"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="13"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="13"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="13"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="13"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="13"/>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="13"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="13"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="7"/>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="13"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="7"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="13"/>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="7"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="13"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="7"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="13"/>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="7"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="13"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="7"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="13"/>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="7"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="13"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="7"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="13"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="7"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="13"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="7"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="13"/>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="13"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="13"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="13"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="13"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="13"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="13"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="13"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="13"/>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="13"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="13"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="6"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="13"/>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="7"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="13"/>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="7"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="13"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="7"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="13"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="7"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="13"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="7"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="13"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="7"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="13"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="7"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="13"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="7"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="13"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="7"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="13"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="7"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="13"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="7"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="13"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="13"/>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -5481,7 +4234,7 @@
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
     </row>
-    <row r="290" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="13"/>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
@@ -5739,7 +4492,7 @@
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="13"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
@@ -5758,170 +4511,104 @@
       <c r="E335" s="8"/>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B336" s="13"/>
-      <c r="C336" s="8"/>
-      <c r="D336" s="8"/>
-      <c r="E336" s="8"/>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B337" s="13"/>
-      <c r="C337" s="8"/>
-      <c r="D337" s="8"/>
-      <c r="E337" s="8"/>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B338" s="13"/>
-      <c r="C338" s="8"/>
-      <c r="D338" s="8"/>
-      <c r="E338" s="8"/>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B339" s="13"/>
-      <c r="C339" s="8"/>
-      <c r="D339" s="8"/>
-      <c r="E339" s="8"/>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B340" s="13"/>
-      <c r="C340" s="8"/>
-      <c r="D340" s="8"/>
-      <c r="E340" s="8"/>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B341" s="13"/>
-      <c r="C341" s="8"/>
-      <c r="D341" s="8"/>
-      <c r="E341" s="8"/>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B342" s="13"/>
-      <c r="C342" s="8"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B343" s="13"/>
-      <c r="C343" s="8"/>
-      <c r="D343" s="8"/>
-      <c r="E343" s="8"/>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B344" s="13"/>
-      <c r="C344" s="8"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="8"/>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B345" s="13"/>
-      <c r="C345" s="8"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="8"/>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B346" s="13"/>
-      <c r="C346" s="8"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="8"/>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B347" s="13"/>
-      <c r="C347" s="8"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B348" s="13"/>
-      <c r="C348" s="8"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B349" s="13"/>
-      <c r="C349" s="8"/>
-      <c r="D349" s="8"/>
-      <c r="E349" s="8"/>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B350" s="13"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B351" s="13"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B352" s="13"/>
-      <c r="C352" s="8"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="8"/>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B353" s="13"/>
-      <c r="C353" s="8"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="8"/>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B354" s="13"/>
-      <c r="C354" s="8"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="8"/>
-    </row>
-    <row r="355" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="13"/>
-      <c r="C355" s="8"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B356" s="13"/>
-      <c r="C356" s="8"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B357" s="13"/>
-      <c r="C357" s="8"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="8"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B358" s="14"/>
-      <c r="C358" s="9"/>
-      <c r="D358" s="9"/>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B359" s="14"/>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B360" s="14"/>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B361" s="14"/>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B362" s="14"/>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B363" s="14"/>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B364" s="14"/>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336" s="14"/>
+      <c r="C336" s="9"/>
+      <c r="D336" s="9"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="14"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="14"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="14"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="14"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="14"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="14"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="15"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="15"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="15"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="15"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="15"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="15"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="15"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="15"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="15"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="15"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="15"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="15"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="15"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="15"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="15"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="15"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="15"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="15"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="15"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="15"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="15"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="15"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="15"/>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="15"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="15"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="15"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
@@ -6362,80 +5049,80 @@
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" s="15"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="15"/>
-    </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" s="15"/>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" s="15"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" s="15"/>
-    </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" s="15"/>
+      <c r="B519" s="6"/>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" s="15"/>
+      <c r="B520" s="7"/>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" s="15"/>
+      <c r="B521" s="7"/>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" s="15"/>
+      <c r="B522" s="7"/>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B523" s="15"/>
+      <c r="B523" s="7"/>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B524" s="15"/>
+      <c r="B524" s="7"/>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B525" s="15"/>
+      <c r="B525" s="7"/>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B526" s="15"/>
+      <c r="B526" s="7"/>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B527" s="15"/>
+      <c r="B527" s="7"/>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B528" s="15"/>
+      <c r="B528" s="7"/>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B529" s="15"/>
+      <c r="B529" s="7"/>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B530" s="15"/>
+      <c r="B530" s="7"/>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B531" s="15"/>
+      <c r="B531" s="4"/>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B532" s="15"/>
+      <c r="B532" s="6"/>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B533" s="15"/>
+      <c r="B533" s="7"/>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B534" s="15"/>
+      <c r="B534" s="7"/>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B535" s="15"/>
+      <c r="B535" s="7"/>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B536" s="15"/>
+      <c r="B536" s="7"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="7"/>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B538" s="15"/>
+      <c r="B538" s="7"/>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B539" s="15"/>
+      <c r="B539" s="7"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="7"/>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B541" s="6"/>
+      <c r="B541" s="7"/>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" s="7"/>
@@ -6447,100 +5134,34 @@
       <c r="B544" s="7"/>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B545" s="7"/>
+      <c r="B545" s="16"/>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B546" s="7"/>
-    </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B547" s="7"/>
-    </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B548" s="7"/>
-    </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B549" s="7"/>
-    </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B550" s="7"/>
-    </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B551" s="7"/>
-    </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B552" s="7"/>
-    </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B553" s="4"/>
-    </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B554" s="6"/>
-    </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B555" s="7"/>
-    </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B556" s="7"/>
-    </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B557" s="7"/>
-    </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B558" s="7"/>
-    </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B559" s="7"/>
-    </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B560" s="7"/>
-    </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B561" s="7"/>
-    </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B562" s="7"/>
-    </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B563" s="7"/>
-    </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B564" s="7"/>
-    </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B565" s="7"/>
-    </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B566" s="7"/>
-    </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B567" s="16"/>
+      <c r="B546" s="17"/>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B568" s="17"/>
-    </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B590" s="18"/>
-    </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B591" s="18"/>
-    </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B911" s="74"/>
-    </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1086" s="74"/>
-    </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1202" s="74"/>
-    </row>
-    <row r="1220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1220" s="74"/>
-    </row>
-    <row r="2142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2142" s="74"/>
+      <c r="B568" s="18"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="18"/>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B889" s="73"/>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1064" s="73"/>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1180" s="73"/>
+    </row>
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1198" s="73"/>
+    </row>
+    <row r="2120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2120" s="73"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B359:B2238">
+  <conditionalFormatting sqref="B337:B2216">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6563,24 +5184,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/RBDstandardized_questionnaireLHCSI_ENA.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCSI_ENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B377F3B-54D2-4336-8897-92CEDF3D61B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208FE746-21E7-4A96-857E-686D53836681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1322,9 +1322,9 @@
   <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5223,18 +5223,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5455,14 +5455,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5475,6 +5467,14 @@
     <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/questionnaires/RBDstandardized_questionnaireLHCSI_ENA.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCSI_ENA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208FE746-21E7-4A96-857E-686D53836681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73737639-4AB2-4F55-9B8B-BD98FC6C4309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -216,11 +216,6 @@
 to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
   </si>
   <si>
-    <t>During the past 30 days, did anyone in your household have to:  
-Beg because there was not enough resources (food, cash, else)
- to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
-  </si>
-  <si>
     <t>During the past 30 days, did anyone in your household have to: 
  Sell last female animals 
 due to a lack of food or a lack of money to buy food?</t>
@@ -231,30 +226,15 @@
 because there was not enough resources (food, cash, else) to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
   </si>
   <si>
-    <t xml:space="preserve">To access food </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To access education services/commodities (e.g. uniforms, books) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To access health services/medicines </t>
-  </si>
-  <si>
     <t xml:space="preserve">To access water/sanitation facilities </t>
   </si>
   <si>
     <t>To pay for existing debts</t>
   </si>
   <si>
-    <t xml:space="preserve">To access adequate shelter </t>
-  </si>
-  <si>
     <t>To access essential dwelling services (electricity, energy, waste disposal…)</t>
   </si>
   <si>
-    <t>To buy and repair cloths or shoes</t>
-  </si>
-  <si>
     <t>LhCSIStress1_EN</t>
   </si>
   <si>
@@ -358,13 +338,158 @@
   </si>
   <si>
     <t>${LhCSIEmergency3_EN} = 2 or ${LhCSIEmergency3_EN} = 3</t>
+  </si>
+  <si>
+    <t>During the past 30 days, did anyone in your household have to:  
+Beg 
+because there was not enough resources (food, cash, else)
+ to meet essential needs (e.g. adequate shelter, education services, health services, food, etc)?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>30 derniers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, un membre de votre ménage a-t-il dû se livrer à l'une des activités suivantes parce qu'il n'avait pas suffisamment de ressources (nourriture, argent, autres) pour satisfaire ses </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>besoins essentiels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Vendre des actifs/biens non productifs du ménage (radio, meuble, réfrigérateur, télévision, bijoux etc.)
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+ Vendre plus d’animaux (non-productifs) que d’habitude
+ parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)
+</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Dépenser l’épargne 
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Emprunter de l’argent / nourriture auprès d’un prêteur formel /banque
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Réduire les dépenses non alimentaires essentielles telles que l’éducation, la santé (dont de médicaments)
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Vendre des biens productifs ou des moyens de transport (machine à coudre, brouette, vélo, car, etc.)
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Retirer les enfants de l’école
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Vendre la maison ou du terrain
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Mendier
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Au cours des 30 derniers jours, quelqu'un de votre ménage a-t-il dû:
+Vendre les derniers animaux femelles
+parce qu'il n'y avait pas assez de ressources (nourriture, argent, autres) pour accéder aux besoins essentiels (par exemple, nourriture, logement, services d'éducation, services de santé, etc.)?</t>
+  </si>
+  <si>
+    <t>Quelle était la RAISON PRINCIPALE pour laquelle vous ou d'autres membres de votre ménage avez adopté ces stratégies d'adaptation pour accéder aux besoins essentiels ?</t>
+  </si>
+  <si>
+    <t>To buy food</t>
+  </si>
+  <si>
+    <t>To pay for rent</t>
+  </si>
+  <si>
+    <t>To pay school, education costs</t>
+  </si>
+  <si>
+    <t>To cover health expenses</t>
+  </si>
+  <si>
+    <t>To buy non-food items (clothes, small furniture...)</t>
+  </si>
+  <si>
+    <t>Pour acheter de la nourriture</t>
+  </si>
+  <si>
+    <t>Pour payer le loyer</t>
+  </si>
+  <si>
+    <t>Pour payer l'école, les frais d'éducation</t>
+  </si>
+  <si>
+    <t>Pour couvrir les dépenses de santé</t>
+  </si>
+  <si>
+    <t>Pour acheter des articles non alimentaires (vêtements, petits meubles...)</t>
+  </si>
+  <si>
+    <t>Pour accéder aux installations d'eau/assainissement</t>
+  </si>
+  <si>
+    <t>Pour accéder aux services essentiels du logement (électricité, énergie, évacuation des déchets...)</t>
+  </si>
+  <si>
+    <t>Pour payer les dettes existantes</t>
+  </si>
+  <si>
+    <t>Autres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +706,33 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -710,7 +862,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -895,7 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -918,8 +1069,18 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,17 +1482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
@@ -1402,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -1416,76 +1577,88 @@
       <c r="C3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="81" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>64</v>
+      <c r="B4" s="76" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="82" t="s">
+        <v>95</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>78</v>
+      <c r="A5" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="72"/>
+        <v>81</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>105</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="82" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="72"/>
+      <c r="A7" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>105</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="79" t="s">
+      <c r="B8" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="82" t="s">
+        <v>97</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1494,111 +1667,130 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="72"/>
+      <c r="A9" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>105</v>
+      </c>
       <c r="M9" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="72"/>
+      <c r="B10" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="D11" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="M11" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="79" t="s">
+      <c r="B12" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="82" t="s">
+        <v>99</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="72"/>
+      <c r="A13" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>105</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>69</v>
+      <c r="B14" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
+      <c r="D14" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>83</v>
-      </c>
       <c r="C15" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="76" t="s">
-        <v>70</v>
+      <c r="B16" s="75" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="67" t="s">
         <v>51</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="E16" s="68"/>
       <c r="J16" s="1" t="s">
@@ -1607,57 +1799,69 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>84</v>
+      <c r="A17" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="E17" s="68"/>
       <c r="M17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="79" t="s">
+      <c r="B18" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="78" t="s">
         <v>52</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>87</v>
+      <c r="A19" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>72</v>
+      <c r="B20" s="74" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="E20" s="68"/>
       <c r="J20" s="1" t="s">
@@ -1666,48 +1870,56 @@
       <c r="M20" s="68"/>
     </row>
     <row r="21" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>86</v>
+      <c r="A21" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="68"/>
       <c r="M21" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>73</v>
+      <c r="B22" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>104</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>90</v>
+      <c r="A23" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="E23" s="68"/>
       <c r="M23" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2633,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -2435,7 +2647,7 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
@@ -2449,7 +2661,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10">
         <v>3</v>
@@ -2463,7 +2675,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -2482,112 +2694,130 @@
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
-        <v>76</v>
+      <c r="A9" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="37"/>
+      <c r="C9" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
-        <v>76</v>
+      <c r="A10" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="11"/>
+      <c r="C10" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>76</v>
+      <c r="A11" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="37"/>
+      <c r="C11" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
-        <v>76</v>
+      <c r="A12" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="37"/>
+      <c r="C12" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
-        <v>76</v>
+      <c r="A13" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="37"/>
+      <c r="C13" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>76</v>
+      <c r="A14" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="10">
         <v>6</v>
       </c>
-      <c r="C14" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="37"/>
+      <c r="C14" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>76</v>
+      <c r="A15" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="10">
         <v>7</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="37"/>
+      <c r="C15" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
-        <v>76</v>
+      <c r="A16" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B16" s="10">
         <v>8</v>
       </c>
-      <c r="C16" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="37"/>
+      <c r="C16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
-        <v>76</v>
+      <c r="A17" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="10">
         <v>999</v>
       </c>
-      <c r="C17" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="37"/>
+      <c r="C17" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -5146,19 +5376,19 @@
       <c r="B569" s="18"/>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B889" s="73"/>
+      <c r="B889" s="72"/>
     </row>
     <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1064" s="73"/>
+      <c r="B1064" s="72"/>
     </row>
     <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1180" s="73"/>
+      <c r="B1180" s="72"/>
     </row>
     <row r="1198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1198" s="73"/>
+      <c r="B1198" s="72"/>
     </row>
     <row r="2120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2120" s="73"/>
+      <c r="B2120" s="72"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B337:B2216">
@@ -5223,18 +5453,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5455,6 +5685,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5467,14 +5705,6 @@
     <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
